--- a/pred_ohlcv/54/2019-11-01 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-01 OGO ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -411,21 +416,24 @@
         <v>23.3</v>
       </c>
       <c r="C2" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="D2" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="E2" t="n">
         <v>23.3</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>5100</v>
       </c>
       <c r="G2" t="n">
-        <v>23.08999999999999</v>
+        <v>23.08499999999999</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>23.3</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="G3" t="n">
-        <v>23.09166666666666</v>
+        <v>23.08999999999999</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,21 +474,24 @@
         <v>23.3</v>
       </c>
       <c r="C4" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D4" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E4" t="n">
         <v>23.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>23.08999999999999</v>
+        <v>23.09166666666666</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -492,18 +506,21 @@
         <v>23.3</v>
       </c>
       <c r="D5" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="E5" t="n">
         <v>23.3</v>
       </c>
       <c r="F5" t="n">
-        <v>45454.4869</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="n">
         <v>23.08999999999999</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,7 +532,7 @@
         <v>23.3</v>
       </c>
       <c r="C6" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="D6" t="n">
         <v>23.4</v>
@@ -524,12 +541,15 @@
         <v>23.3</v>
       </c>
       <c r="F6" t="n">
-        <v>10211</v>
+        <v>45454.4869</v>
       </c>
       <c r="G6" t="n">
-        <v>23.09999999999999</v>
+        <v>23.08999999999999</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C7" t="n">
         <v>23.4</v>
       </c>
-      <c r="C7" t="n">
-        <v>23.5</v>
-      </c>
       <c r="D7" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="E7" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F7" t="n">
-        <v>67356.36749999999</v>
+        <v>10211</v>
       </c>
       <c r="G7" t="n">
-        <v>23.10833333333333</v>
+        <v>23.09999999999999</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="C8" t="n">
         <v>23.5</v>
@@ -573,15 +596,18 @@
         <v>23.5</v>
       </c>
       <c r="E8" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="F8" t="n">
-        <v>2000</v>
+        <v>67356.36749999999</v>
       </c>
       <c r="G8" t="n">
-        <v>23.11666666666666</v>
+        <v>23.10833333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>23.5</v>
       </c>
       <c r="F9" t="n">
-        <v>5775</v>
+        <v>2000</v>
       </c>
       <c r="G9" t="n">
-        <v>23.12666666666666</v>
+        <v>23.11666666666666</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>23.5</v>
       </c>
       <c r="C10" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D10" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="E10" t="n">
         <v>23.5</v>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>5775</v>
       </c>
       <c r="G10" t="n">
-        <v>23.13666666666666</v>
+        <v>23.12666666666666</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C11" t="n">
         <v>23.6</v>
@@ -651,15 +683,18 @@
         <v>23.6</v>
       </c>
       <c r="E11" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="F11" t="n">
-        <v>40000.007</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="n">
-        <v>23.14666666666665</v>
+        <v>23.13666666666666</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -671,21 +706,24 @@
         <v>23.6</v>
       </c>
       <c r="C12" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="D12" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="E12" t="n">
         <v>23.6</v>
       </c>
       <c r="F12" t="n">
-        <v>6030</v>
+        <v>40000.007</v>
       </c>
       <c r="G12" t="n">
-        <v>23.16166666666665</v>
+        <v>23.14666666666665</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C13" t="n">
         <v>23.9</v>
       </c>
-      <c r="C13" t="n">
-        <v>24</v>
-      </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="E13" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="F13" t="n">
-        <v>18000</v>
+        <v>6030</v>
       </c>
       <c r="G13" t="n">
-        <v>23.17833333333332</v>
+        <v>23.16166666666665</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="C14" t="n">
         <v>24</v>
@@ -729,15 +770,18 @@
         <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="F14" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="G14" t="n">
-        <v>23.19499999999999</v>
+        <v>23.17833333333332</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>36717.10242348178</v>
+        <v>14000</v>
       </c>
       <c r="G15" t="n">
-        <v>23.22333333333332</v>
+        <v>23.19499999999999</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,10 +819,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>24.7</v>
       </c>
       <c r="D16" t="n">
         <v>24.7</v>
@@ -784,12 +831,15 @@
         <v>24</v>
       </c>
       <c r="F16" t="n">
-        <v>4538.3805</v>
+        <v>36717.10242348178</v>
       </c>
       <c r="G16" t="n">
-        <v>23.23999999999999</v>
+        <v>23.22333333333332</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="C17" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
         <v>24.7</v>
       </c>
       <c r="E17" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>18000</v>
+        <v>4538.3805</v>
       </c>
       <c r="G17" t="n">
-        <v>23.26833333333332</v>
+        <v>23.23999999999999</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="C18" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="D18" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="E18" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="F18" t="n">
-        <v>48000.0104</v>
+        <v>18000</v>
       </c>
       <c r="G18" t="n">
-        <v>23.29833333333332</v>
+        <v>23.26833333333332</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,7 +906,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="C19" t="n">
         <v>24.8</v>
@@ -859,15 +915,18 @@
         <v>24.8</v>
       </c>
       <c r="E19" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="F19" t="n">
-        <v>4000</v>
+        <v>48000.0104</v>
       </c>
       <c r="G19" t="n">
-        <v>23.33499999999999</v>
+        <v>23.29833333333332</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,13 +947,16 @@
         <v>24.8</v>
       </c>
       <c r="F20" t="n">
-        <v>14650.8064</v>
+        <v>4000</v>
       </c>
       <c r="G20" t="n">
-        <v>23.36499999999999</v>
+        <v>23.33499999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -902,25 +964,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="C21" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="D21" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="E21" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="F21" t="n">
-        <v>9179.275600000001</v>
+        <v>14650.8064</v>
       </c>
       <c r="G21" t="n">
-        <v>23.39333333333332</v>
+        <v>23.36499999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -928,25 +993,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C22" t="n">
         <v>24.3</v>
       </c>
-      <c r="C22" t="n">
-        <v>23.8</v>
-      </c>
       <c r="D22" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="E22" t="n">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="F22" t="n">
-        <v>19132.4567</v>
+        <v>9179.275600000001</v>
       </c>
       <c r="G22" t="n">
-        <v>23.40666666666666</v>
+        <v>23.39333333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -957,21 +1025,24 @@
         <v>24.3</v>
       </c>
       <c r="C23" t="n">
-        <v>24.3</v>
+        <v>23.8</v>
       </c>
       <c r="D23" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="E23" t="n">
-        <v>24.3</v>
+        <v>23.8</v>
       </c>
       <c r="F23" t="n">
-        <v>5163.3425</v>
+        <v>19132.4567</v>
       </c>
       <c r="G23" t="n">
-        <v>23.42833333333332</v>
+        <v>23.40666666666666</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="C24" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="D24" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="E24" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="F24" t="n">
-        <v>11372.5069</v>
+        <v>5163.3425</v>
       </c>
       <c r="G24" t="n">
-        <v>23.45499999999999</v>
+        <v>23.42833333333332</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>24.7</v>
+        <v>24.2</v>
       </c>
       <c r="C25" t="n">
-        <v>24.8</v>
+        <v>24.2</v>
       </c>
       <c r="D25" t="n">
-        <v>24.8</v>
+        <v>24.2</v>
       </c>
       <c r="E25" t="n">
-        <v>24.7</v>
+        <v>24.2</v>
       </c>
       <c r="F25" t="n">
-        <v>16552.4399</v>
+        <v>11372.5069</v>
       </c>
       <c r="G25" t="n">
-        <v>23.48666666666666</v>
+        <v>23.45499999999999</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>24.7</v>
       </c>
       <c r="F26" t="n">
-        <v>28975</v>
+        <v>16552.4399</v>
       </c>
       <c r="G26" t="n">
-        <v>23.51666666666666</v>
+        <v>23.48666666666666</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>24</v>
+        <v>24.7</v>
       </c>
       <c r="C27" t="n">
-        <v>23.1</v>
+        <v>24.8</v>
       </c>
       <c r="D27" t="n">
-        <v>24</v>
+        <v>24.8</v>
       </c>
       <c r="E27" t="n">
-        <v>23.1</v>
+        <v>24.7</v>
       </c>
       <c r="F27" t="n">
-        <v>10000</v>
+        <v>28975</v>
       </c>
       <c r="G27" t="n">
-        <v>23.51833333333332</v>
+        <v>23.51666666666666</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>24.1</v>
+        <v>23.1</v>
       </c>
       <c r="D28" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="E28" t="n">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="F28" t="n">
-        <v>14615.598</v>
+        <v>10000</v>
       </c>
       <c r="G28" t="n">
-        <v>23.53666666666665</v>
+        <v>23.51833333333332</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="C29" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D29" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="E29" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="F29" t="n">
-        <v>2000</v>
+        <v>14615.598</v>
       </c>
       <c r="G29" t="n">
-        <v>23.55333333333332</v>
+        <v>23.53666666666665</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="D30" t="n">
-        <v>24.7</v>
+        <v>24</v>
       </c>
       <c r="E30" t="n">
         <v>24</v>
       </c>
       <c r="F30" t="n">
-        <v>14289.1794</v>
+        <v>2000</v>
       </c>
       <c r="G30" t="n">
-        <v>23.58166666666665</v>
+        <v>23.55333333333332</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="C31" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D31" t="n">
         <v>24.7</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>9784.569100000001</v>
+        <v>14289.1794</v>
       </c>
       <c r="G31" t="n">
-        <v>23.61166666666665</v>
+        <v>23.58166666666665</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="C32" t="n">
-        <v>23.9</v>
+        <v>24.6</v>
       </c>
       <c r="D32" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="E32" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="F32" t="n">
-        <v>8326.18</v>
+        <v>9784.569100000001</v>
       </c>
       <c r="G32" t="n">
-        <v>23.62499999999999</v>
+        <v>23.61166666666665</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>23.9</v>
       </c>
       <c r="F33" t="n">
-        <v>4475</v>
+        <v>8326.18</v>
       </c>
       <c r="G33" t="n">
-        <v>23.63833333333332</v>
+        <v>23.62499999999999</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>23.9</v>
       </c>
       <c r="F34" t="n">
-        <v>18183.407</v>
+        <v>4475</v>
       </c>
       <c r="G34" t="n">
-        <v>23.64499999999999</v>
+        <v>23.63833333333332</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="C35" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="D35" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="E35" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="F35" t="n">
-        <v>4000</v>
+        <v>18183.407</v>
       </c>
       <c r="G35" t="n">
-        <v>23.65333333333333</v>
+        <v>23.64499999999999</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,7 +1399,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="C36" t="n">
         <v>23.8</v>
@@ -1301,15 +1408,18 @@
         <v>23.8</v>
       </c>
       <c r="E36" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="F36" t="n">
-        <v>17031</v>
+        <v>4000</v>
       </c>
       <c r="G36" t="n">
-        <v>23.66333333333332</v>
+        <v>23.65333333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1321,21 +1431,24 @@
         <v>23.7</v>
       </c>
       <c r="C37" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="D37" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="E37" t="n">
         <v>23.7</v>
       </c>
       <c r="F37" t="n">
-        <v>802</v>
+        <v>17031</v>
       </c>
       <c r="G37" t="n">
-        <v>23.67166666666666</v>
+        <v>23.66333333333332</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C38" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="D38" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E38" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="F38" t="n">
-        <v>22847.457</v>
+        <v>802</v>
       </c>
       <c r="G38" t="n">
-        <v>23.67666666666666</v>
+        <v>23.67166666666666</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,7 +1486,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C39" t="n">
         <v>23.5</v>
@@ -1382,12 +1498,15 @@
         <v>23.5</v>
       </c>
       <c r="F39" t="n">
-        <v>17269</v>
+        <v>22847.457</v>
       </c>
       <c r="G39" t="n">
-        <v>23.67499999999999</v>
+        <v>23.67666666666666</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1402,18 +1521,21 @@
         <v>23.5</v>
       </c>
       <c r="D40" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="E40" t="n">
         <v>23.5</v>
       </c>
       <c r="F40" t="n">
-        <v>14773</v>
+        <v>17269</v>
       </c>
       <c r="G40" t="n">
-        <v>23.67333333333333</v>
+        <v>23.67499999999999</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1428,18 +1550,21 @@
         <v>23.5</v>
       </c>
       <c r="D41" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="E41" t="n">
         <v>23.5</v>
       </c>
       <c r="F41" t="n">
-        <v>2837.6099</v>
+        <v>14773</v>
       </c>
       <c r="G41" t="n">
-        <v>23.67666666666666</v>
+        <v>23.67333333333333</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C42" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="D42" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="E42" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="F42" t="n">
-        <v>1918.9981</v>
+        <v>2837.6099</v>
       </c>
       <c r="G42" t="n">
-        <v>23.68166666666666</v>
+        <v>23.67666666666666</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,21 +1605,24 @@
         <v>23.6</v>
       </c>
       <c r="C43" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="D43" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="E43" t="n">
         <v>23.6</v>
       </c>
       <c r="F43" t="n">
-        <v>6613</v>
+        <v>1918.9981</v>
       </c>
       <c r="G43" t="n">
-        <v>23.69333333333333</v>
+        <v>23.68166666666666</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,7 +1631,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="C44" t="n">
         <v>23.9</v>
@@ -1509,15 +1640,18 @@
         <v>23.9</v>
       </c>
       <c r="E44" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>6613</v>
       </c>
       <c r="G44" t="n">
-        <v>23.70166666666666</v>
+        <v>23.69333333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>23.9</v>
       </c>
       <c r="F45" t="n">
-        <v>5651.4303</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>23.71666666666666</v>
+        <v>23.70166666666666</v>
       </c>
       <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="C46" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="D46" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="E46" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="F46" t="n">
-        <v>847.457</v>
+        <v>5651.4303</v>
       </c>
       <c r="G46" t="n">
-        <v>23.72833333333333</v>
+        <v>23.71666666666666</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="C47" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="D47" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="E47" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>847.457</v>
       </c>
       <c r="G47" t="n">
-        <v>23.74833333333333</v>
+        <v>23.72833333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C48" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D48" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E48" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F48" t="n">
-        <v>7500</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>23.77333333333333</v>
+        <v>23.74833333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C49" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D49" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="E49" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>7500</v>
       </c>
       <c r="G49" t="n">
-        <v>23.79666666666666</v>
+        <v>23.77333333333333</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>24.4</v>
       </c>
       <c r="F50" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>23.81833333333333</v>
+        <v>23.79666666666666</v>
       </c>
       <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C51" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D51" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E51" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>4000</v>
       </c>
       <c r="G51" t="n">
-        <v>23.83666666666666</v>
+        <v>23.81833333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>24.3</v>
       </c>
       <c r="F52" t="n">
-        <v>7500</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>23.85666666666667</v>
+        <v>23.83666666666666</v>
       </c>
       <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>24.3</v>
       </c>
       <c r="F53" t="n">
-        <v>4675.8436</v>
+        <v>7500</v>
       </c>
       <c r="G53" t="n">
-        <v>23.875</v>
+        <v>23.85666666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C54" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="D54" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="E54" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F54" t="n">
-        <v>1488.2416</v>
+        <v>4675.8436</v>
       </c>
       <c r="G54" t="n">
-        <v>23.90166666666666</v>
+        <v>23.875</v>
       </c>
       <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,7 +1950,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C55" t="n">
         <v>24.5</v>
@@ -1795,15 +1959,18 @@
         <v>24.5</v>
       </c>
       <c r="E55" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="F55" t="n">
-        <v>7236.0816</v>
+        <v>1488.2416</v>
       </c>
       <c r="G55" t="n">
-        <v>23.93</v>
+        <v>23.90166666666666</v>
       </c>
       <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>24.5</v>
       </c>
       <c r="C56" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D56" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E56" t="n">
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
       <c r="F56" t="n">
-        <v>11678.6078</v>
+        <v>7236.0816</v>
       </c>
       <c r="G56" t="n">
-        <v>23.95499999999999</v>
+        <v>23.93</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="C57" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D57" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="E57" t="n">
-        <v>24.7</v>
+        <v>23.5</v>
       </c>
       <c r="F57" t="n">
-        <v>11379.1093</v>
+        <v>11678.6078</v>
       </c>
       <c r="G57" t="n">
-        <v>23.98166666666667</v>
+        <v>23.95499999999999</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>24.7</v>
       </c>
       <c r="F58" t="n">
-        <v>8799.3927</v>
+        <v>11379.1093</v>
       </c>
       <c r="G58" t="n">
-        <v>24.00666666666666</v>
+        <v>23.98166666666667</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>24.7</v>
       </c>
       <c r="F59" t="n">
-        <v>21195.9793</v>
+        <v>8799.3927</v>
       </c>
       <c r="G59" t="n">
-        <v>24.03166666666666</v>
+        <v>24.00666666666666</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>24.7</v>
       </c>
       <c r="F60" t="n">
-        <v>4000</v>
+        <v>21195.9793</v>
       </c>
       <c r="G60" t="n">
-        <v>24.05666666666666</v>
+        <v>24.03166666666666</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="C61" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D61" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E61" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="F61" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="G61" t="n">
-        <v>24.07833333333333</v>
+        <v>24.05666666666666</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>24.6</v>
       </c>
       <c r="F62" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="G62" t="n">
-        <v>24.09833333333333</v>
+        <v>24.07833333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>24.6</v>
       </c>
       <c r="F63" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="G63" t="n">
-        <v>24.11833333333333</v>
+        <v>24.09833333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="C64" t="n">
-        <v>23.5</v>
+        <v>24.6</v>
       </c>
       <c r="D64" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="E64" t="n">
-        <v>23.5</v>
+        <v>24.6</v>
       </c>
       <c r="F64" t="n">
-        <v>41727.2403</v>
+        <v>14000</v>
       </c>
       <c r="G64" t="n">
-        <v>24.12166666666666</v>
+        <v>24.11833333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="C65" t="n">
-        <v>24.6</v>
+        <v>23.5</v>
       </c>
       <c r="D65" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="E65" t="n">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="F65" t="n">
-        <v>10427</v>
+        <v>41727.2403</v>
       </c>
       <c r="G65" t="n">
-        <v>24.14333333333332</v>
+        <v>24.12166666666666</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,7 +2269,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="C66" t="n">
         <v>24.6</v>
@@ -2081,15 +2278,18 @@
         <v>24.6</v>
       </c>
       <c r="E66" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="F66" t="n">
-        <v>37266</v>
+        <v>10427</v>
       </c>
       <c r="G66" t="n">
-        <v>24.16333333333332</v>
+        <v>24.14333333333332</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>24.6</v>
       </c>
       <c r="C67" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D67" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="E67" t="n">
         <v>24.6</v>
       </c>
       <c r="F67" t="n">
-        <v>360</v>
+        <v>37266</v>
       </c>
       <c r="G67" t="n">
-        <v>24.18333333333332</v>
+        <v>24.16333333333332</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="C68" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="D68" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="E68" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="F68" t="n">
-        <v>7500</v>
+        <v>360</v>
       </c>
       <c r="G68" t="n">
-        <v>24.19666666666665</v>
+        <v>24.18333333333332</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="C69" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="D69" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="E69" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>7500</v>
       </c>
       <c r="G69" t="n">
-        <v>24.21666666666665</v>
+        <v>24.19666666666665</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,7 +2385,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>24.1</v>
+        <v>24.7</v>
       </c>
       <c r="C70" t="n">
         <v>24.7</v>
@@ -2185,15 +2394,18 @@
         <v>24.7</v>
       </c>
       <c r="E70" t="n">
-        <v>24.1</v>
+        <v>24.7</v>
       </c>
       <c r="F70" t="n">
-        <v>2169.3749</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>24.23499999999999</v>
+        <v>24.21666666666665</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="C71" t="n">
-        <v>23.6</v>
+        <v>24.7</v>
       </c>
       <c r="D71" t="n">
         <v>24.7</v>
       </c>
       <c r="E71" t="n">
-        <v>23.6</v>
+        <v>24.1</v>
       </c>
       <c r="F71" t="n">
-        <v>139699.5883</v>
+        <v>2169.3749</v>
       </c>
       <c r="G71" t="n">
         <v>24.23499999999999</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="C72" t="n">
-        <v>24.7</v>
+        <v>23.6</v>
       </c>
       <c r="D72" t="n">
         <v>24.7</v>
       </c>
       <c r="E72" t="n">
-        <v>24.4</v>
+        <v>23.6</v>
       </c>
       <c r="F72" t="n">
-        <v>26842.1049</v>
+        <v>139699.5883</v>
       </c>
       <c r="G72" t="n">
-        <v>24.24833333333332</v>
+        <v>24.23499999999999</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,7 +2472,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="C73" t="n">
         <v>24.7</v>
@@ -2263,15 +2481,18 @@
         <v>24.7</v>
       </c>
       <c r="E73" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="F73" t="n">
-        <v>3157.8951</v>
+        <v>26842.1049</v>
       </c>
       <c r="G73" t="n">
-        <v>24.25999999999999</v>
+        <v>24.24833333333332</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,7 +2501,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="C74" t="n">
         <v>24.7</v>
@@ -2289,15 +2510,18 @@
         <v>24.7</v>
       </c>
       <c r="E74" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="F74" t="n">
-        <v>3359.0904</v>
+        <v>3157.8951</v>
       </c>
       <c r="G74" t="n">
-        <v>24.27166666666666</v>
+        <v>24.25999999999999</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,7 +2530,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="C75" t="n">
         <v>24.7</v>
@@ -2315,15 +2539,18 @@
         <v>24.7</v>
       </c>
       <c r="E75" t="n">
-        <v>24.7</v>
+        <v>24.2</v>
       </c>
       <c r="F75" t="n">
-        <v>3349.0904</v>
+        <v>3359.0904</v>
       </c>
       <c r="G75" t="n">
         <v>24.27166666666666</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>24.7</v>
       </c>
       <c r="C76" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="D76" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="E76" t="n">
         <v>24.7</v>
       </c>
       <c r="F76" t="n">
-        <v>123716.5777</v>
+        <v>3349.0904</v>
       </c>
       <c r="G76" t="n">
-        <v>24.28666666666666</v>
+        <v>24.27166666666666</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="C77" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D77" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E77" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="F77" t="n">
-        <v>657.9941</v>
+        <v>123716.5777</v>
       </c>
       <c r="G77" t="n">
-        <v>24.29166666666666</v>
+        <v>24.28666666666666</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C78" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="D78" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E78" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F78" t="n">
-        <v>3999.4</v>
+        <v>657.9941</v>
       </c>
       <c r="G78" t="n">
-        <v>24.29333333333333</v>
+        <v>24.29166666666666</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C79" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D79" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E79" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F79" t="n">
-        <v>4604.52</v>
+        <v>3999.4</v>
       </c>
       <c r="G79" t="n">
-        <v>24.29666666666666</v>
+        <v>24.29333333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2442,18 +2681,21 @@
         <v>25</v>
       </c>
       <c r="D80" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E80" t="n">
         <v>25</v>
       </c>
       <c r="F80" t="n">
-        <v>54456.9361</v>
+        <v>4604.52</v>
       </c>
       <c r="G80" t="n">
-        <v>24.3</v>
+        <v>24.29666666666666</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,7 +2704,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="C81" t="n">
         <v>25</v>
@@ -2474,12 +2716,15 @@
         <v>25</v>
       </c>
       <c r="F81" t="n">
-        <v>135995.4103</v>
+        <v>54456.9361</v>
       </c>
       <c r="G81" t="n">
-        <v>24.31166666666666</v>
+        <v>24.3</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="C82" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="D82" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E82" t="n">
         <v>25</v>
       </c>
       <c r="F82" t="n">
-        <v>104990.9148</v>
+        <v>135995.4103</v>
       </c>
       <c r="G82" t="n">
-        <v>24.335</v>
+        <v>24.31166666666666</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="C83" t="n">
         <v>25.2</v>
       </c>
       <c r="D83" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="E83" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="F83" t="n">
-        <v>42848.0512</v>
+        <v>104990.9148</v>
       </c>
       <c r="G83" t="n">
-        <v>24.35</v>
+        <v>24.335</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,7 +2791,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="C84" t="n">
         <v>25.2</v>
@@ -2549,15 +2800,18 @@
         <v>25.3</v>
       </c>
       <c r="E84" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="F84" t="n">
-        <v>36921.1524</v>
+        <v>42848.0512</v>
       </c>
       <c r="G84" t="n">
-        <v>24.36666666666667</v>
+        <v>24.35</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,10 +2820,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C85" t="n">
         <v>25.2</v>
-      </c>
-      <c r="C85" t="n">
-        <v>25.3</v>
       </c>
       <c r="D85" t="n">
         <v>25.3</v>
@@ -2578,12 +2832,15 @@
         <v>25</v>
       </c>
       <c r="F85" t="n">
-        <v>16962.0159</v>
+        <v>36921.1524</v>
       </c>
       <c r="G85" t="n">
-        <v>24.375</v>
+        <v>24.36666666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C86" t="n">
         <v>25.3</v>
       </c>
-      <c r="C86" t="n">
-        <v>25.4</v>
-      </c>
       <c r="D86" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="E86" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="F86" t="n">
-        <v>26869.7888</v>
+        <v>16962.0159</v>
       </c>
       <c r="G86" t="n">
-        <v>24.385</v>
+        <v>24.375</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,21 +2881,24 @@
         <v>25.3</v>
       </c>
       <c r="C87" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E87" t="n">
         <v>25.3</v>
       </c>
-      <c r="D87" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="E87" t="n">
-        <v>25.2</v>
-      </c>
       <c r="F87" t="n">
-        <v>17611.0118</v>
+        <v>26869.7888</v>
       </c>
       <c r="G87" t="n">
-        <v>24.42166666666667</v>
+        <v>24.385</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>25.2</v>
       </c>
       <c r="F88" t="n">
-        <v>116629.8918</v>
+        <v>17611.0118</v>
       </c>
       <c r="G88" t="n">
-        <v>24.44166666666667</v>
+        <v>24.42166666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,10 +2936,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="C89" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="D89" t="n">
         <v>25.3</v>
@@ -2682,12 +2948,15 @@
         <v>25.2</v>
       </c>
       <c r="F89" t="n">
-        <v>17510</v>
+        <v>116629.8918</v>
       </c>
       <c r="G89" t="n">
-        <v>24.46166666666667</v>
+        <v>24.44166666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,10 +2965,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="C90" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D90" t="n">
         <v>25.3</v>
@@ -2708,12 +2977,15 @@
         <v>25.2</v>
       </c>
       <c r="F90" t="n">
-        <v>8020</v>
+        <v>17510</v>
       </c>
       <c r="G90" t="n">
-        <v>24.47166666666667</v>
+        <v>24.46166666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2731,15 +3003,18 @@
         <v>25.3</v>
       </c>
       <c r="E91" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="F91" t="n">
-        <v>16000.1581</v>
+        <v>8020</v>
       </c>
       <c r="G91" t="n">
-        <v>24.48333333333334</v>
+        <v>24.47166666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="C92" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="D92" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="E92" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="F92" t="n">
-        <v>9742.162899999999</v>
+        <v>16000.1581</v>
       </c>
       <c r="G92" t="n">
-        <v>24.50333333333333</v>
+        <v>24.48333333333334</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="C93" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="D93" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E93" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="F93" t="n">
-        <v>9179.2063</v>
+        <v>9742.162899999999</v>
       </c>
       <c r="G93" t="n">
-        <v>24.525</v>
+        <v>24.50333333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="C94" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="D94" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="E94" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="F94" t="n">
-        <v>4000</v>
+        <v>9179.2063</v>
       </c>
       <c r="G94" t="n">
-        <v>24.545</v>
+        <v>24.525</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>25.1</v>
       </c>
       <c r="F95" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G95" t="n">
-        <v>24.56666666666666</v>
+        <v>24.545</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="C96" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="D96" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E96" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="F96" t="n">
-        <v>19371.4743</v>
+        <v>2000</v>
       </c>
       <c r="G96" t="n">
-        <v>24.59</v>
+        <v>24.56666666666666</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2881,21 +3171,24 @@
         <v>25.2</v>
       </c>
       <c r="C97" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="D97" t="n">
         <v>25.2</v>
       </c>
       <c r="E97" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="F97" t="n">
-        <v>11058.14</v>
+        <v>19371.4743</v>
       </c>
       <c r="G97" t="n">
-        <v>24.61333333333333</v>
+        <v>24.59</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C98" t="n">
         <v>25.1</v>
-      </c>
-      <c r="C98" t="n">
-        <v>25.2</v>
       </c>
       <c r="D98" t="n">
         <v>25.2</v>
       </c>
       <c r="E98" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="F98" t="n">
-        <v>11010</v>
+        <v>11058.14</v>
       </c>
       <c r="G98" t="n">
-        <v>24.64166666666666</v>
+        <v>24.61333333333333</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="C99" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="D99" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="E99" t="n">
         <v>25</v>
       </c>
       <c r="F99" t="n">
-        <v>19763.9325</v>
+        <v>11010</v>
       </c>
       <c r="G99" t="n">
-        <v>24.66666666666666</v>
+        <v>24.64166666666666</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>25</v>
       </c>
       <c r="F100" t="n">
-        <v>43633.0025</v>
+        <v>19763.9325</v>
       </c>
       <c r="G100" t="n">
-        <v>24.69166666666666</v>
+        <v>24.66666666666666</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C101" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="D101" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E101" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F101" t="n">
-        <v>9714.8575</v>
+        <v>43633.0025</v>
       </c>
       <c r="G101" t="n">
-        <v>24.715</v>
+        <v>24.69166666666666</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C102" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="D102" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E102" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="F102" t="n">
-        <v>27985.6225</v>
+        <v>9714.8575</v>
       </c>
       <c r="G102" t="n">
-        <v>24.735</v>
+        <v>24.715</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>25</v>
+      </c>
+      <c r="C103" t="n">
         <v>24.8</v>
       </c>
-      <c r="C103" t="n">
-        <v>25.1</v>
-      </c>
       <c r="D103" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E103" t="n">
         <v>24.8</v>
       </c>
       <c r="F103" t="n">
-        <v>46685</v>
+        <v>27985.6225</v>
       </c>
       <c r="G103" t="n">
-        <v>24.755</v>
+        <v>24.735</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C104" t="n">
         <v>25.1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>25</v>
       </c>
       <c r="D104" t="n">
         <v>25.1</v>
       </c>
       <c r="E104" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="F104" t="n">
-        <v>10010</v>
+        <v>46685</v>
       </c>
       <c r="G104" t="n">
-        <v>24.77333333333333</v>
+        <v>24.755</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,21 +3403,24 @@
         <v>25.1</v>
       </c>
       <c r="C105" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D105" t="n">
         <v>25.1</v>
       </c>
       <c r="E105" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="F105" t="n">
-        <v>10212.5394</v>
+        <v>10010</v>
       </c>
       <c r="G105" t="n">
-        <v>24.79333333333333</v>
+        <v>24.77333333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="C106" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="D106" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="E106" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="F106" t="n">
-        <v>50000</v>
+        <v>10212.5394</v>
       </c>
       <c r="G106" t="n">
-        <v>24.80833333333333</v>
+        <v>24.79333333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C107" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E107" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F107" t="n">
-        <v>130040</v>
+        <v>50000</v>
       </c>
       <c r="G107" t="n">
-        <v>24.81999999999999</v>
+        <v>24.80833333333333</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C108" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="D108" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="E108" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F108" t="n">
-        <v>37914.1</v>
+        <v>130040</v>
       </c>
       <c r="G108" t="n">
-        <v>24.83166666666666</v>
+        <v>24.81999999999999</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>25</v>
       </c>
       <c r="F109" t="n">
-        <v>9079.030000000001</v>
+        <v>37914.1</v>
       </c>
       <c r="G109" t="n">
-        <v>24.84166666666665</v>
+        <v>24.83166666666666</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,21 +3548,24 @@
         <v>25</v>
       </c>
       <c r="C110" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D110" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E110" t="n">
         <v>25</v>
       </c>
       <c r="F110" t="n">
-        <v>39163.3367</v>
+        <v>9079.030000000001</v>
       </c>
       <c r="G110" t="n">
-        <v>24.85333333333332</v>
+        <v>24.84166666666665</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,10 +3574,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>25</v>
+      </c>
+      <c r="C111" t="n">
         <v>25.1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>25</v>
       </c>
       <c r="D111" t="n">
         <v>25.1</v>
@@ -3254,12 +3586,15 @@
         <v>25</v>
       </c>
       <c r="F111" t="n">
-        <v>9085</v>
+        <v>39163.3367</v>
       </c>
       <c r="G111" t="n">
-        <v>24.86499999999999</v>
+        <v>24.85333333333332</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="C112" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="D112" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="E112" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F112" t="n">
-        <v>5801.2749</v>
+        <v>9085</v>
       </c>
       <c r="G112" t="n">
-        <v>24.87499999999999</v>
+        <v>24.86499999999999</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3300,18 +3638,21 @@
         <v>24.9</v>
       </c>
       <c r="D113" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E113" t="n">
         <v>24.9</v>
       </c>
       <c r="F113" t="n">
-        <v>43188.2403</v>
+        <v>5801.2749</v>
       </c>
       <c r="G113" t="n">
-        <v>24.88499999999999</v>
+        <v>24.87499999999999</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,7 +3664,7 @@
         <v>24.9</v>
       </c>
       <c r="C114" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D114" t="n">
         <v>25</v>
@@ -3332,12 +3673,15 @@
         <v>24.9</v>
       </c>
       <c r="F114" t="n">
-        <v>24469.1104</v>
+        <v>43188.2403</v>
       </c>
       <c r="G114" t="n">
-        <v>24.89333333333332</v>
+        <v>24.88499999999999</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3349,21 +3693,24 @@
         <v>24.9</v>
       </c>
       <c r="C115" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="D115" t="n">
+        <v>25</v>
+      </c>
+      <c r="E115" t="n">
         <v>24.9</v>
       </c>
-      <c r="E115" t="n">
-        <v>24.8</v>
-      </c>
       <c r="F115" t="n">
-        <v>16768.1373</v>
+        <v>24469.1104</v>
       </c>
       <c r="G115" t="n">
-        <v>24.89833333333332</v>
+        <v>24.89333333333332</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="C116" t="n">
         <v>24.8</v>
       </c>
       <c r="D116" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="E116" t="n">
         <v>24.8</v>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>16768.1373</v>
       </c>
       <c r="G116" t="n">
-        <v>24.90166666666666</v>
+        <v>24.89833333333332</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="C117" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="D117" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="E117" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="F117" t="n">
-        <v>9665.7107</v>
+        <v>2000</v>
       </c>
       <c r="G117" t="n">
-        <v>24.90499999999999</v>
+        <v>24.90166666666666</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="C118" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D118" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="E118" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="F118" t="n">
-        <v>62885.2292</v>
+        <v>9665.7107</v>
       </c>
       <c r="G118" t="n">
         <v>24.90499999999999</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>24.8</v>
       </c>
       <c r="C119" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="D119" t="n">
         <v>24.8</v>
       </c>
       <c r="E119" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="F119" t="n">
-        <v>7500</v>
+        <v>62885.2292</v>
       </c>
       <c r="G119" t="n">
-        <v>24.90666666666666</v>
+        <v>24.90499999999999</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,12 +3847,15 @@
         <v>24.8</v>
       </c>
       <c r="F120" t="n">
-        <v>6173.7096</v>
+        <v>7500</v>
       </c>
       <c r="G120" t="n">
-        <v>24.90833333333332</v>
+        <v>24.90666666666666</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="C121" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="D121" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="E121" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="F121" t="n">
-        <v>28777.4095</v>
+        <v>6173.7096</v>
       </c>
       <c r="G121" t="n">
-        <v>24.90999999999999</v>
+        <v>24.90833333333332</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="C122" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="D122" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E122" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="F122" t="n">
-        <v>150758.6156</v>
+        <v>28777.4095</v>
       </c>
       <c r="G122" t="n">
-        <v>24.90833333333332</v>
+        <v>24.90999999999999</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,544 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="C123" t="n">
         <v>24.5</v>
       </c>
       <c r="D123" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="E123" t="n">
         <v>24.5</v>
       </c>
       <c r="F123" t="n">
-        <v>39497.3681</v>
+        <v>150758.6156</v>
       </c>
       <c r="G123" t="n">
-        <v>24.90666666666666</v>
+        <v>24.90833333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C124" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="D124" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="E124" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F124" t="n">
-        <v>7406.4825</v>
-      </c>
-      <c r="G124" t="n">
-        <v>24.92166666666666</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C125" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D125" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E125" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F125" t="n">
-        <v>8508</v>
-      </c>
-      <c r="G125" t="n">
-        <v>24.91666666666666</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C126" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D126" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E126" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F126" t="n">
-        <v>17629.1769</v>
-      </c>
-      <c r="G126" t="n">
-        <v>24.91166666666667</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C127" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D127" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E127" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1956.8876</v>
-      </c>
-      <c r="G127" t="n">
-        <v>24.90499999999999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C128" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D128" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F128" t="n">
-        <v>4202.9487</v>
-      </c>
-      <c r="G128" t="n">
-        <v>24.90499999999999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C129" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D129" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E129" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F129" t="n">
-        <v>17037.7371</v>
-      </c>
-      <c r="G129" t="n">
-        <v>24.89833333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C130" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E130" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F130" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G130" t="n">
-        <v>24.89166666666666</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="C131" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="D131" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="E131" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F131" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G131" t="n">
-        <v>24.90166666666666</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C132" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D132" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E132" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F132" t="n">
-        <v>3335.1028</v>
-      </c>
-      <c r="G132" t="n">
-        <v>24.89499999999999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C133" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F133" t="n">
-        <v>13290.524</v>
-      </c>
-      <c r="G133" t="n">
-        <v>24.89333333333332</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C134" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="D134" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E134" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F134" t="n">
-        <v>81.79989999999999</v>
-      </c>
-      <c r="G134" t="n">
-        <v>24.88833333333332</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C135" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D135" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E135" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F135" t="n">
-        <v>8645.866</v>
-      </c>
-      <c r="G135" t="n">
-        <v>24.88166666666666</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="C136" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F136" t="n">
-        <v>6564.6359</v>
-      </c>
-      <c r="G136" t="n">
-        <v>24.86999999999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="C137" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D137" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E137" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F137" t="n">
-        <v>20014.7149</v>
-      </c>
-      <c r="G137" t="n">
-        <v>24.86166666666666</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D138" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E138" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F138" t="n">
-        <v>3664.534</v>
-      </c>
-      <c r="G138" t="n">
-        <v>24.85166666666665</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C139" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="D139" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="E139" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1820.2159</v>
-      </c>
-      <c r="G139" t="n">
-        <v>24.84166666666665</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="C140" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="D140" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="E140" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="F140" t="n">
-        <v>595.8196</v>
-      </c>
-      <c r="G140" t="n">
-        <v>24.83166666666666</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C141" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="D141" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="E141" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F141" t="n">
-        <v>6158.2753</v>
-      </c>
-      <c r="G141" t="n">
-        <v>24.81999999999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="C142" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D142" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2414.546</v>
-      </c>
-      <c r="G142" t="n">
-        <v>24.80833333333332</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C143" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="D143" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="E143" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F143" t="n">
-        <v>8179.7841</v>
-      </c>
-      <c r="G143" t="n">
-        <v>24.79666666666666</v>
-      </c>
-      <c r="H143" t="n">
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
